--- a/experiments/00_general/results/statistics/stats_cortisol_raw_chronotype.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_raw_chronotype.xlsx
@@ -185,34 +185,37 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>7.541e+20</t>
-  </si>
-  <si>
-    <t>7.402e+24</t>
-  </si>
-  <si>
-    <t>1.013e+17</t>
-  </si>
-  <si>
-    <t>2.657e+09</t>
-  </si>
-  <si>
-    <t>5.788e+10</t>
-  </si>
-  <si>
-    <t>1258.985</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>8120.352</t>
-  </si>
-  <si>
-    <t>1.549e+09</t>
+    <t>2.32e+21</t>
+  </si>
+  <si>
+    <t>4.067e+25</t>
+  </si>
+  <si>
+    <t>2.359e+17</t>
+  </si>
+  <si>
+    <t>3.177e+09</t>
+  </si>
+  <si>
+    <t>1.05e+11</t>
+  </si>
+  <si>
+    <t>1372.761</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2.076e+04</t>
+  </si>
+  <si>
+    <t>5.4e+09</t>
+  </si>
+  <si>
+    <t>0.326</t>
   </si>
   <si>
     <t>0.323</t>
@@ -221,43 +224,40 @@
     <t>0.331</t>
   </si>
   <si>
-    <t>0.276</t>
+    <t>0.262</t>
   </si>
   <si>
     <t>0.858</t>
   </si>
   <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.193</t>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.192</t>
   </si>
   <si>
     <t>0.345</t>
   </si>
   <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.257</t>
+    <t>0.263</t>
   </si>
   <si>
     <t>0.317</t>
   </si>
   <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.9</t>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.89</t>
   </si>
   <si>
     <t>0.39</t>
   </si>
   <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>1.082</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.018</t>
   </si>
   <si>
     <t>0.466</t>
@@ -717,10 +717,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9526</v>
+        <v>0.9556</v>
       </c>
       <c r="D3">
-        <v>0.0005999999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.9799</v>
+        <v>0.9804</v>
       </c>
       <c r="D6">
-        <v>0.0925</v>
+        <v>0.0935</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="D9">
-        <v>0.1706</v>
+        <v>0.1911</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -858,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.9714</v>
+        <v>0.9709</v>
       </c>
       <c r="D12">
-        <v>0.0172</v>
+        <v>0.0137</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.9496</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="D15">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>1.1283</v>
+        <v>1.1509</v>
       </c>
       <c r="D3">
-        <v>0.3261</v>
+        <v>0.3189</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0.0036</v>
+        <v>0.0116</v>
       </c>
       <c r="D4">
-        <v>0.9964</v>
+        <v>0.9885</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1.0945</v>
+        <v>1.1356</v>
       </c>
       <c r="D5">
-        <v>0.3371</v>
+        <v>0.3237</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1043,10 +1043,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>0.2791</v>
+        <v>0.2943</v>
       </c>
       <c r="D6">
-        <v>0.7568</v>
+        <v>0.7455000000000001</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1060,10 +1060,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>1.3191</v>
+        <v>1.3784</v>
       </c>
       <c r="D7">
-        <v>0.2702</v>
+        <v>0.2548</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1136,25 +1136,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>154.3313</v>
+        <v>158.7071</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>77.1656</v>
+        <v>79.3535</v>
       </c>
       <c r="G3">
-        <v>0.7966</v>
+        <v>0.8277</v>
       </c>
       <c r="H3">
-        <v>0.4526</v>
+        <v>0.4389</v>
       </c>
       <c r="J3">
-        <v>0.0097</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4008.1461</v>
+        <v>4063.2874</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F4">
-        <v>1002.0365</v>
+        <v>1015.8218</v>
       </c>
       <c r="G4">
-        <v>67.5902</v>
+        <v>69.1361</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2931</v>
+        <v>0.294</v>
       </c>
       <c r="K4">
-        <v>0.4905</v>
+        <v>0.4913</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0978</v>
+        <v>0.1004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>248.2581</v>
+        <v>240.2918</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F5">
-        <v>31.0323</v>
+        <v>30.0365</v>
       </c>
       <c r="G5">
-        <v>2.0932</v>
+        <v>2.0443</v>
       </c>
       <c r="H5">
-        <v>0.0344</v>
+        <v>0.0392</v>
       </c>
       <c r="J5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-11.9104</v>
+        <v>-12.0498</v>
       </c>
       <c r="I3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -1327,7 +1327,7 @@
         <v>55</v>
       </c>
       <c r="M3">
-        <v>-0.8233</v>
+        <v>-0.8262</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-13.3572</v>
+        <v>-13.5737</v>
       </c>
       <c r="I4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1371,7 +1371,7 @@
         <v>56</v>
       </c>
       <c r="M4">
-        <v>-1.2209</v>
+        <v>-1.2263</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-10.4929</v>
+        <v>-10.6019</v>
       </c>
       <c r="I5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -1415,7 +1415,7 @@
         <v>57</v>
       </c>
       <c r="M5">
-        <v>-1.0977</v>
+        <v>-1.097</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-7.5545</v>
+        <v>-7.5767</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1459,7 +1459,7 @@
         <v>58</v>
       </c>
       <c r="M6">
-        <v>-0.8323</v>
+        <v>-0.8264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-8.1014</v>
+        <v>-8.192399999999999</v>
       </c>
       <c r="I7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -1503,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="M7">
-        <v>-0.4315</v>
+        <v>-0.4373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.547</v>
+        <v>-4.5678</v>
       </c>
       <c r="I8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
         <v>60</v>
       </c>
       <c r="M8">
-        <v>-0.3599</v>
+        <v>-0.3596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.9123</v>
+        <v>-0.8544</v>
       </c>
       <c r="I9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.363</v>
+        <v>0.3941</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
       </c>
       <c r="M9">
-        <v>-0.0843</v>
+        <v>-0.0784</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1620,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0042</v>
+        <v>1.1264</v>
       </c>
       <c r="I10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.3167</v>
+        <v>0.2616</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
       </c>
       <c r="M10">
-        <v>0.0498</v>
+        <v>0.0552</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1664,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.9983</v>
+        <v>5.212</v>
       </c>
       <c r="I11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1679,7 +1679,7 @@
         <v>63</v>
       </c>
       <c r="M11">
-        <v>0.3229</v>
+        <v>0.3334</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7.4568</v>
+        <v>7.6716</v>
       </c>
       <c r="I12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1723,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="M12">
-        <v>0.2611</v>
+        <v>0.2659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1752,22 +1752,22 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-1.0741</v>
+        <v>-1.0878</v>
       </c>
       <c r="I13">
-        <v>60.396</v>
+        <v>59.6942</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>0.287</v>
+        <v>0.2811</v>
       </c>
       <c r="L13" t="s">
         <v>65</v>
       </c>
       <c r="M13">
-        <v>-0.2194</v>
+        <v>-0.2228</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>0.8243</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14">
         <v>-0.0631</v>
@@ -1840,22 +1840,22 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.4995</v>
+        <v>0.5074</v>
       </c>
       <c r="I15">
-        <v>13.1614</v>
+        <v>13.0756</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.6257</v>
+        <v>0.6203</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>0.1594</v>
+        <v>0.1626</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1884,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.8998</v>
+        <v>0.8364</v>
       </c>
       <c r="I16">
-        <v>74.4794</v>
+        <v>73.1742</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
       </c>
       <c r="K16">
-        <v>0.3712</v>
+        <v>0.4056</v>
       </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>0.1629</v>
+        <v>0.1516</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>0.1213</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17">
         <v>0.4153</v>
@@ -1972,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1.0954</v>
+        <v>1.156</v>
       </c>
       <c r="I18">
-        <v>16.3585</v>
+        <v>16.1144</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.2892</v>
+        <v>0.2645</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>0.2481</v>
+        <v>0.2628</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2016,22 +2016,22 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.1092</v>
+        <v>0.0886</v>
       </c>
       <c r="I19">
-        <v>70.1433</v>
+        <v>68.7363</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>0.9134</v>
+        <v>0.9297</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19">
-        <v>0.0204</v>
+        <v>0.0166</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>0.6448</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M20">
         <v>0.1312</v>
@@ -2104,22 +2104,22 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.448</v>
+        <v>0.4647</v>
       </c>
       <c r="I21">
-        <v>14.354</v>
+        <v>14.1733</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.6609</v>
+        <v>0.6492</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M21">
-        <v>0.1206</v>
+        <v>0.1263</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2148,22 +2148,22 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.8056</v>
+        <v>-0.8427</v>
       </c>
       <c r="I22">
-        <v>64.1157</v>
+        <v>63.3869</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.4234</v>
+        <v>0.4026</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
       </c>
       <c r="M22">
-        <v>-0.1585</v>
+        <v>-0.1659</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2236,22 +2236,22 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.6226</v>
+        <v>0.6492</v>
       </c>
       <c r="I24">
-        <v>13.8701</v>
+        <v>13.7691</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.5436</v>
+        <v>0.5269</v>
       </c>
       <c r="L24" t="s">
         <v>75</v>
       </c>
       <c r="M24">
-        <v>0.178</v>
+        <v>0.1859</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2280,22 +2280,22 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-1.8535</v>
+        <v>-1.8482</v>
       </c>
       <c r="I25">
-        <v>67.40770000000001</v>
+        <v>66.5325</v>
       </c>
       <c r="J25" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.0682</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L25" t="s">
         <v>76</v>
       </c>
       <c r="M25">
-        <v>-0.3541</v>
+        <v>-0.3531</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2368,22 +2368,22 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.4222</v>
+        <v>0.4145</v>
       </c>
       <c r="I27">
-        <v>13.5521</v>
+        <v>13.4575</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6795</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="L27" t="s">
         <v>78</v>
       </c>
       <c r="M27">
-        <v>0.1263</v>
+        <v>0.1244</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2412,22 +2412,22 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1.9614</v>
+        <v>-1.9274</v>
       </c>
       <c r="I28">
-        <v>63.3129</v>
+        <v>62.5494</v>
       </c>
       <c r="J28" t="s">
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.0542</v>
+        <v>0.0585</v>
       </c>
       <c r="L28" t="s">
         <v>79</v>
       </c>
       <c r="M28">
-        <v>-0.3889</v>
+        <v>-0.3826</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2500,22 +2500,22 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-0.057</v>
+        <v>-0.07820000000000001</v>
       </c>
       <c r="I30">
-        <v>12.2413</v>
+        <v>12.1951</v>
       </c>
       <c r="J30" t="s">
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.9555</v>
+        <v>0.9389</v>
       </c>
       <c r="L30" t="s">
         <v>81</v>
       </c>
       <c r="M30">
-        <v>-0.0226</v>
+        <v>-0.0311</v>
       </c>
       <c r="N30">
         <v>1</v>
